--- a/xlsx/美国总统办事机构_intext.xlsx
+++ b/xlsx/美国总统办事机构_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>美国总统办事机构</t>
   </si>
@@ -29,13 +29,13 @@
     <t>en-Eisenhower Executive Office Building</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国总统办事机构</t>
+    <t>政策_政策_美国_美国总统办事机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
+    <t>白宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%A9%E5%86%99</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>機關</t>
+    <t>机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E5%8A%9E%E5%85%AC%E5%8E%85%E4%B8%BB%E4%BB%BB</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
   </si>
   <si>
-    <t>白宮幕僚長</t>
+    <t>白宫幕僚长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
@@ -185,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B2%BF%E6%98%93%E4%BB%A3%E8%A1%A8%E8%99%95</t>
   </si>
   <si>
-    <t>美國貿易代表處</t>
+    <t>美国贸易代表处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%83%C2%B7%E8%90%8A%E7%89%B9%E6%B5%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>勞勃·萊特海澤</t>
+    <t>劳勃·莱特海泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%85%8B%C2%B7%E5%93%88%E6%A0%BC%E5%B0%94</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%8A%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>三權分立</t>
+    <t>三权分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E4%B8%AD%E7%9A%84%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>美國憲法中的權力分立</t>
+    <t>美国宪法中的权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4%E6%9C%BA%E6%9E%84</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
@@ -293,39 +293,36 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國住房及城市發展部</t>
+    <t>美国住房及城市发展部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國運輸部</t>
+    <t>美国运输部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -407,7 +404,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -2237,7 +2234,7 @@
         <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2263,10 +2260,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2292,10 +2289,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2350,10 +2347,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2379,10 +2376,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2408,10 +2405,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2437,10 +2434,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -2466,10 +2463,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2495,10 +2492,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2524,10 +2521,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2553,10 +2550,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2582,10 +2579,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2611,10 +2608,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2640,10 +2637,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2669,10 +2666,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2698,10 +2695,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>5</v>
@@ -2727,10 +2724,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
